--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/本年应交增值税.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/本年应交增值税.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,377 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>10.87671</v>
-      </c>
-      <c r="C2" t="n">
-        <v>78.44535999999999</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.01976</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.02209</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9.054639999999999</v>
-      </c>
-      <c r="G2" t="n">
-        <v>54.01838</v>
-      </c>
-      <c r="H2" t="n">
-        <v>17.66584</v>
-      </c>
-      <c r="I2" t="n">
-        <v>30.13319</v>
-      </c>
-      <c r="J2" t="n">
-        <v>9.23232</v>
-      </c>
-      <c r="K2" t="n">
-        <v>20.15223</v>
-      </c>
-      <c r="L2" t="n">
-        <v>738.88</v>
-      </c>
-      <c r="M2" t="n">
-        <v>4.55164</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.6041</v>
-      </c>
-      <c r="O2" t="n">
-        <v>26.07099</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5.27364</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.09784</v>
-      </c>
-      <c r="R2" t="n">
-        <v>22.53036</v>
-      </c>
-      <c r="S2" t="n">
-        <v>7.40751</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>9.07605</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.7218</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.5192</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.23586</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>61.99066</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>103.30384</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>45.72708</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>11.9824</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>6.13389</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>3.98494</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>25.84939</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.34434</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>18.50846</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>21.47798</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>28.66392</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.43788</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>32.23941</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>14.52169</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>33.9269</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>10.03185</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.04427</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>14.2283</v>
-      </c>
-      <c r="C3" t="n">
-        <v>92.79738</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.0671</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>11.96554</v>
-      </c>
-      <c r="G3" t="n">
-        <v>62.5884</v>
-      </c>
-      <c r="H3" t="n">
-        <v>7.52692</v>
-      </c>
-      <c r="I3" t="n">
-        <v>34.52668</v>
-      </c>
-      <c r="J3" t="n">
-        <v>11.79215</v>
-      </c>
-      <c r="K3" t="n">
-        <v>24.92146</v>
-      </c>
-      <c r="L3" t="n">
-        <v>876.37</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5.04109</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6.41094</v>
-      </c>
-      <c r="O3" t="n">
-        <v>28.67648</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5.59787</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.13291</v>
-      </c>
-      <c r="R3" t="n">
-        <v>27.96778</v>
-      </c>
-      <c r="S3" t="n">
-        <v>6.73439</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>11.5493</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.21566</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.50013</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.01882</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>76.53212000000001</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>128.92155</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>53.60563</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>17.20852</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>18.00679</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6.11077</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>27.83098</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.4303</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>23.22166</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>26.25447</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>29.55106</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.51108</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>35.73826</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>15.31784</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>36.65551</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>15.13887</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.07231</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>18.08868</v>
-      </c>
-      <c r="C4" t="n">
-        <v>127.62571</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.15564</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>9.27933</v>
-      </c>
-      <c r="G4" t="n">
-        <v>74.62864999999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7.82441</v>
-      </c>
-      <c r="I4" t="n">
-        <v>40.71897</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12.80206</v>
-      </c>
-      <c r="K4" t="n">
-        <v>27.28401</v>
-      </c>
-      <c r="L4" t="n">
-        <v>960.87</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5.0657</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5.24802</v>
-      </c>
-      <c r="O4" t="n">
-        <v>35.05536</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5.8498</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.12703</v>
-      </c>
-      <c r="R4" t="n">
-        <v>27.54311</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5.82031</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>12.10236</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.08468</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.96876</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.22937</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>103.04898</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>107.87389</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>49.83497</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>14.55306</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>22.12268</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.76399</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>25.48997</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.7861</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>28.29329</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>24.65698</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>32.69515</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.60355</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>38.21114</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>17.4863</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>41.29595</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>17.54066</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.08283</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
